--- a/5-FuncoesMercadoTrabalho/11. Função OU - Duas Condições - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/11. Função OU - Duas Condições - Material(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A47F47-EA1B-437C-95B9-47A0108928B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28644BD0-24E6-45A4-B4FB-B31C8F878D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="957" activeTab="1" xr2:uid="{85B08948-7BCF-4007-BABB-111144F4B1B5}"/>
   </bookViews>
@@ -34,6 +34,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -3081,6 +3084,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3117,7 +3121,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cancel 14" xfId="3" xr:uid="{CBF31453-4DDC-45BF-AC7E-30D18DBD75F7}"/>
@@ -3522,13 +3525,13 @@
         <f t="shared" ref="G3:G66" si="1">IF(OR(DATE(2010, 12, 31) &gt; B3, C3 = "Concurso", D3 = "RJ"), "Sim", "Não")</f>
         <v>Não</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>884</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -3672,13 +3675,13 @@
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -36281,8 +36284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6C40C8-DB3B-4117-A4C6-3F559E94710A}">
   <dimension ref="A1:M1999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36366,13 +36369,13 @@
         <f t="shared" ref="G3:G66" si="1">IF(OR(DATE(2010, 12, 31) &gt; B3, D3 = "RJ", D3 = "MG", D3 = "SP", C3 = "Terceiro"), "Sim", "Não")</f>
         <v>Sim</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="31" t="s">
         <v>882</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -36516,13 +36519,13 @@
         <f t="shared" si="1"/>
         <v>Sim</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="34" t="s">
         <v>883</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -37046,7 +37049,7 @@
         <f t="shared" si="0"/>
         <v>Não</v>
       </c>
-      <c r="G28" s="36" t="str">
+      <c r="G28" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Não</v>
       </c>
